--- a/output_df/control_df.xlsx
+++ b/output_df/control_df.xlsx
@@ -464,11 +464,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -483,11 +483,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -502,11 +502,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -521,11 +521,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -540,11 +540,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -559,11 +559,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -578,11 +578,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -597,11 +597,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -616,11 +616,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -635,11 +635,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -654,11 +654,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -673,11 +673,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -711,11 +711,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -730,11 +730,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -749,11 +749,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -768,11 +768,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -787,11 +787,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -806,11 +806,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -825,11 +825,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -844,11 +844,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -863,11 +863,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -882,11 +882,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -901,11 +901,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -939,11 +939,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -958,11 +958,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -977,11 +977,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -996,11 +996,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1015,11 +1015,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1034,11 +1034,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1053,11 +1053,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1091,11 +1091,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1110,11 +1110,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1186,11 +1186,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1224,11 +1224,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1281,11 +1281,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1319,11 +1319,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1338,11 +1338,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1376,11 +1376,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1395,11 +1395,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -1471,11 +1471,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1509,11 +1509,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1547,11 +1547,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1604,11 +1604,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1642,11 +1642,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1661,11 +1661,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1680,11 +1680,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -1699,11 +1699,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1718,11 +1718,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1756,11 +1756,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1775,11 +1775,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1794,11 +1794,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1813,11 +1813,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1832,11 +1832,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -1870,11 +1870,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1927,11 +1927,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1946,11 +1946,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -1965,11 +1965,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -1984,11 +1984,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2003,11 +2003,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2022,11 +2022,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -2041,11 +2041,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2060,11 +2060,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -2079,11 +2079,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -2098,11 +2098,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E88" t="n">
         <v>18.651428571</v>
@@ -2117,11 +2117,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E89" t="n">
         <v>43.98</v>
@@ -2136,11 +2136,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E90" t="n">
         <v>45.568571429</v>
@@ -2155,11 +2155,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E91" t="n">
         <v>83.528571429</v>
@@ -2174,11 +2174,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E92" t="n">
         <v>87.95999999999999</v>
@@ -2193,11 +2193,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E93" t="n">
         <v>87.95999999999999</v>
@@ -2212,11 +2212,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E94" t="n">
         <v>87.95999999999999</v>
@@ -2231,11 +2231,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E95" t="n">
         <v>87.95999999999999</v>
@@ -2250,11 +2250,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E96" t="n">
         <v>87.95999999999999</v>
@@ -2269,11 +2269,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E97" t="n">
         <v>87.95999999999999</v>
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E98" t="n">
         <v>87.95999999999999</v>
@@ -2307,11 +2307,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E99" t="n">
         <v>76.84999999999999</v>
@@ -2326,11 +2326,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E100" t="n">
         <v>76.84999999999999</v>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E101" t="n">
         <v>75.264285714</v>
@@ -2364,11 +2364,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E102" t="n">
         <v>72.617142857</v>
@@ -2383,11 +2383,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E103" t="n">
         <v>72.22</v>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E104" t="n">
         <v>72.22</v>
@@ -2421,11 +2421,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E105" t="n">
         <v>51.85</v>
@@ -2440,11 +2440,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E106" t="n">
         <v>51.85</v>
@@ -2459,11 +2459,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E107" t="n">
         <v>50.264285714</v>
@@ -2478,11 +2478,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E108" t="n">
         <v>46.3</v>
@@ -2497,11 +2497,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E109" t="n">
         <v>46.3</v>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E110" t="n">
         <v>46.3</v>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E111" t="n">
         <v>46.3</v>
@@ -2554,11 +2554,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E112" t="n">
         <v>47.092857143</v>
@@ -2573,11 +2573,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E113" t="n">
         <v>48.15</v>
@@ -2592,11 +2592,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E114" t="n">
         <v>48.15</v>
@@ -2611,11 +2611,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E115" t="n">
         <v>48.015714286</v>
@@ -2630,11 +2630,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E116" t="n">
         <v>48.61</v>
@@ -2649,11 +2649,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E117" t="n">
         <v>48.61</v>
@@ -2668,11 +2668,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E118" t="n">
         <v>47.818571429</v>
@@ -2687,11 +2687,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E119" t="n">
         <v>49.54</v>
@@ -2706,11 +2706,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E120" t="n">
         <v>47.951428571</v>
@@ -2725,11 +2725,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E121" t="n">
         <v>45.568571429</v>
@@ -2744,11 +2744,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E122" t="n">
         <v>49.54</v>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E123" t="n">
         <v>62.037142857</v>
@@ -2782,11 +2782,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E124" t="n">
         <v>78.7</v>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E125" t="n">
         <v>78.7</v>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E126" t="n">
         <v>78.7</v>
@@ -2839,11 +2839,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E127" t="n">
         <v>77.642857143</v>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E128" t="n">
         <v>75</v>
@@ -2877,11 +2877,11 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E129" t="n">
         <v>75</v>
@@ -2896,11 +2896,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E130" t="n">
         <v>65.477142857</v>
@@ -2915,11 +2915,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E131" t="n">
         <v>63.89</v>
@@ -2934,11 +2934,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="E132" t="n">
         <v>63.89</v>
@@ -2953,11 +2953,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E133" t="n">
         <v>63.89</v>
@@ -2972,11 +2972,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E134" t="n">
         <v>63.89</v>
@@ -2991,11 +2991,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E135" t="n">
         <v>63.89</v>
@@ -3010,11 +3010,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E136" t="n">
         <v>63.89</v>
@@ -3029,11 +3029,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E137" t="n">
         <v>63.89</v>
@@ -3048,11 +3048,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E138" t="n">
         <v>60.19</v>
@@ -3067,11 +3067,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E139" t="n">
         <v>60.19</v>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E140" t="n">
         <v>64.552857143</v>
@@ -3105,11 +3105,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E141" t="n">
         <v>66.00714285700001</v>
@@ -3124,11 +3124,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E142" t="n">
         <v>65.61</v>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E143" t="n">
         <v>65.61</v>
@@ -3162,11 +3162,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E144" t="n">
         <v>69.577142857</v>
@@ -3181,11 +3181,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E145" t="n">
         <v>68.52</v>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E146" t="n">
         <v>74.471428571</v>
@@ -3219,11 +3219,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E147" t="n">
         <v>75</v>
@@ -3238,11 +3238,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E148" t="n">
         <v>75</v>
@@ -3257,11 +3257,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E149" t="n">
         <v>75</v>
@@ -3276,11 +3276,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E150" t="n">
         <v>63.89</v>
@@ -3295,11 +3295,11 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E151" t="n">
         <v>63.89</v>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E152" t="n">
         <v>57.275714286</v>
@@ -3333,11 +3333,11 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E153" t="n">
         <v>54.63</v>
@@ -3352,11 +3352,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E154" t="n">
         <v>54.63</v>
@@ -3371,11 +3371,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E155" t="n">
         <v>54.63</v>
@@ -3390,11 +3390,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E156" t="n">
         <v>53.571428571</v>
@@ -3409,11 +3409,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E157" t="n">
         <v>47.22</v>
@@ -3428,11 +3428,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>fast_duck</t>
+          <t>gold_plane</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E158" t="n">
         <v>46.227142857</v>
